--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Automation (Selenium)\google-form-automation-py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D728FBF6-E165-44F2-AEB0-D17F84175212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FD1328-544B-49DE-95B1-62102150EED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63E9CC21-A047-4399-BD47-3976F79DBF67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>SC Code</t>
   </si>
@@ -58,28 +57,28 @@
     <t>Appreciation</t>
   </si>
   <si>
-    <t>IN02-509</t>
-  </si>
-  <si>
-    <t>Krish Raghav</t>
-  </si>
-  <si>
-    <t>IN02-509-R230403008</t>
-  </si>
-  <si>
-    <t>krishraghav8077@gmail.com</t>
-  </si>
-  <si>
-    <t>Prachi Gaur</t>
-  </si>
-  <si>
     <t>Good Work</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Your email</t>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>xxxxx</t>
+  </si>
+  <si>
+    <t>abc@xyz.com</t>
+  </si>
+  <si>
+    <t>123@xyz.com</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>xxxxxx</t>
   </si>
 </sst>
 </file>
@@ -476,7 +475,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,78 +514,55 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
-        <v>8077875061</v>
+        <v>9876543210</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9876543211</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>8077875061</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{FB2F1AD7-8264-4663-BAC2-FAC2C870889E}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{19773922-5AAC-48C8-B08A-F14137A99655}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{7DC938F5-323E-4EC6-8EBF-8CD89023272B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D18B6E7-33DD-4FBB-8683-BECE74A20063}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Automation (Selenium)\google-form-automation-py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FD1328-544B-49DE-95B1-62102150EED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3A616B-ABC8-4FC2-89BE-595EF5DBCB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{63E9CC21-A047-4399-BD47-3976F79DBF67}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
   <si>
     <t>SC Code</t>
   </si>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADA372A-0DED-42AB-A7E5-646E5401E6EC}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A8" sqref="A8:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,10 +558,154 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9876543210</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9876543211</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9876543210</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9876543211</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9876543210</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9876543211</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{FB2F1AD7-8264-4663-BAC2-FAC2C870889E}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{7DC938F5-323E-4EC6-8EBF-8CD89023272B}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{49C45F7B-75F9-48D9-AEA6-5FF9D78F8190}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{937A1FFE-E863-4220-8313-73B4ECAA191B}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{A08AD74D-5488-4EEB-864D-BA350DF2F4B6}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{07AF53C2-3984-4AC2-B4FF-69BF29A0BF4F}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{0E513DD3-6A86-4FC3-B507-DAE16D008F91}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{ED236932-2E3F-4822-8D48-9E31929DE67F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
